--- a/data/financial_statements/socf/NFLX.xlsx
+++ b/data/financial_statements/socf/NFLX.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -107,9 +227,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -162,12 +279,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -464,2218 +578,2269 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN29"/>
+  <dimension ref="A1:AO29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
-        <v>1398242000</v>
+        <v>55000000</v>
       </c>
       <c r="C2">
-        <v>1440951000</v>
+        <v>1398000000</v>
       </c>
       <c r="D2">
-        <v>1597447000</v>
+        <v>1441000000</v>
       </c>
       <c r="E2">
-        <v>607429000</v>
+        <v>1597000000</v>
       </c>
       <c r="F2">
+        <v>607000000</v>
+      </c>
+      <c r="G2">
         <v>1449071000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1353013000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1706715000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>542156000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>789976000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>720196000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>709067000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>586970000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>665244000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>270650000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>344052000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>133934000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>402835000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>384349000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>290124000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>185517000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>129590000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>65600000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>178222000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>66748000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>51517000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>40755000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>27658000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>43178000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>29432000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>26335000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>23696000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>83371000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>59295000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>71018000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>53115000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>48421000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>31822000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>29471000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>2689000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>4038210000</v>
+      </c>
+      <c r="C3">
         <v>3738780000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>3344853000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>3240967000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>3805302000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>3033304000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2845237000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>2754937000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>3014566000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>2762332000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>2633820000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>2511902000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>2607487000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>2306681000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>2257411000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>2148247000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>2044632000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>1942887000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>1848707000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>1779019000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>1684568000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>1659974000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>1585856000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>1339330000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>1363903000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>1257802000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>1209513000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>1093760000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>996142000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>906039000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>858994000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>785870000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>764843000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>718780000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>668937000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>629238000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>603275000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>582392000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>539985000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>516028000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>-2895690000</v>
+      </c>
+      <c r="C4">
         <v>-4829408000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>-4404429000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>-3940863000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>-4787310000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>-5161961000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-3506823000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>-3464326000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>-3569313000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-2634219000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>-2102234000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>-2919304000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>-4419531000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>-3704899000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>-3076171000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>-2916509000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>-3414766000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>-3128694000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>-2745043000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>-2512227000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>-2379292000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>-2301205000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>-2050466000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>-1942619000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>-2005666000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>-1857442000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>-1531296000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>-1383616000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>-1228723000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>-1223225000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>-1093876000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>-1046188000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>-858746000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>-851446000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>-733616000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>-724969000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>-641080000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>-570568000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>-589435000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>-555979000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>125074000</v>
+      </c>
+      <c r="C5">
         <v>53875000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>-122048000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>-215444000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>185279000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>24836000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>72313000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-137313000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>107898000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>111677000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>-112027000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>-149153000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>230847000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>-7643000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>-2674000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>-124467000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>121831000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>-4449000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>7733000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>74083000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>63969000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>34029000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>-12439000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>-11000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>15540000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>27810000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>8795000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>-19898000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>49031000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>6762000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>6447000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>-10625000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>51083000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>13003000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>-3086000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>22812000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>12370000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>-5877000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>-5138000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>17019000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>-379629000</v>
+      </c>
+      <c r="C6">
         <v>212072000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-238719000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>350763000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>-95903000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>269774000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>-171430000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>177897000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-176585000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>266027000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>-105450000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>214191000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>-234036000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>260872000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>-26705000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>157647000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>-49776000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>134000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>-52851000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>119049000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>-5169000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>74006000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>-48042000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>93542000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>-3582000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>28957000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>2099000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>41232000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>-39619000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>10883000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>41624000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>35922000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>4050000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>-6980000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>59008000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>-442000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>7030000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>-11451000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>10494000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>-4132000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>-499388000</v>
+      </c>
+      <c r="C7">
         <v>-16754000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>82142000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-110031000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>-118072100</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>467357000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>-656071000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-260644000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-56399000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-32032000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>6771000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>-106791000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>-233715000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>-22049000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>33735000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>11231000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>-70924000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>-36990000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>38866000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>13195000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>-37550000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>-16001000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>-75037000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>-1331000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>5897000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>29415000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>43841000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>12274000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>-64754000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>74140000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>-20867000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>83943000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>-83062000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>29909000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>-6237000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>56605000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>11429000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>8375000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>48566000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>12125000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>443858000</v>
+      </c>
+      <c r="C8">
         <v>556810000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>102750000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>922839000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>-403274000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>82379000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-63761000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>777266000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>-137672000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>1263761000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>1041076000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>259912000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>-1461975000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>-501794000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>-543754000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>-379799000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>-1235072000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>-690411000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>-518239000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>-236757000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>-487957000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>-419607000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>-534528000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>-343856000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>-557160000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>-461941000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>-226293000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>-228590000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>-244745000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>-195969000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>-181343000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>-127382000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>-38461000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>-37439000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>56024000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>36359000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>41445000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>34693000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>33943000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>-12250000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>-111593000</v>
+      </c>
+      <c r="C9">
         <v>-84960000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>-90018000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>-121158000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-165979000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>-167327000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>-110278000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>-81001000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>-148356000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>-109811000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>-141741000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>-98015000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>-107737000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>-45333000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>-39584000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>-60381000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>-70120000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>-39333000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>-27323000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>-37170000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>-21585000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>-33963000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>-65231000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>-52523000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>-61048000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>-27366000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>-10814000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>-8425000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>-12854000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>-37820000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>-27538000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>-13036000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>-15491000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>-21032000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>-19869000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>-13334000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>-23109000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>-10828000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>-8088000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>-12118000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10">
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10">
         <v>-788349000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>-7731000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>-12552000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>-10796000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>-10217000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>-7624000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>-25372000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>-18797000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>-17249000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>-17924000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>-23207000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>-20799000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>-14467000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>-19786000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>-22906000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>-23365000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>-15530000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>-20981000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>-14914000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>-15240000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>-15471000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>-14023000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>-21193000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>-563990000</v>
       </c>
       <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>-68876000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-124521000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-788349000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12">
+        <v>-911276000</v>
       </c>
       <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
         <v>247479000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>17487000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>3074000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>105884000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>68466000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>24935000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>36251000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>-9170000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>8568000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>-367000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>-7105000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>-11854000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>15810000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>10768000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>85592000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>100840000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>13959000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>-106661000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>-149975000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13">
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13">
         <v>-68876000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-124521000</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
       <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
         <v>-21304000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>-1000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>-4615000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>1957000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>-8840000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>-260000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>-288000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>-99834000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>-4021000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>-10452000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>-19722000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>-41317000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>-121630000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>-441000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>-1786000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>-57469000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>-1107000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>-1064000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>-769000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>-1617000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>125000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>907000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>-356000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>2262000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>-3760000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>-639000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>225000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>-431000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>341000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>1129000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>295000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>2131000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>-1329000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>1087000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>4050000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>-1586859000</v>
+      </c>
+      <c r="C14">
         <v>-84960000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-158894000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>-245679000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-954328000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-188631000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>-111278000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>-85616000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>-146399000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-118651000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>-142001000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>-98303000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>-207571000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>-49354000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>-50036000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>-80103000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>-80358000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>-168694000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>-40316000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>-49752000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>-35841000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>202192000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>-56432000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>-75590000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>24422000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>23976000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>-2896000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>4263000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>-40561000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>-47479000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>-48330000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>-42822000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>-51141000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>-20411000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>-28953000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>57639000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>64622000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>-13669000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>-127685000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>-179236000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>-700000000</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>-700000000</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>-700000000</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-500000000</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>-500000000</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>-500000000</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
         <v>1009464000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>2226110000</v>
       </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
       <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
         <v>2243196000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>2061852000</v>
       </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
       <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
         <v>1900000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>1600000000</v>
       </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
       <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
         <v>1420510000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>1000000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>599000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>-61000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>-538000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>1500000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>813000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>-275000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>-271000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>399733000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>-264000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>-258000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>-255000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>280235000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>6705000</v>
+      </c>
+      <c r="C16">
         <v>4113000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>711250000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>-686322000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>88149000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>-81555000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>19727000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>-451929000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>33987000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>68665000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>89060000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>43694000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>15633000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>11989000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>21896000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>22972000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>11450000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>29781000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>26936000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>56335000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>14705000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>34669000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>14826000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>24178000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>25392000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>3819000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>4232000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>3536000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>8171000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>35089000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>23804000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>10916000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>3750000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>9877000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>14469000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>32448000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>31004000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>25561000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>28846000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>39146000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
         <v>-4615687000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>-4444530000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>-3871957000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>-224168000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>-4634682000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>-4136198000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>-3624059000</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
         <v>-7559000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>-2966000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>-17942000</v>
       </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
       <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
         <v>-18192000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>-19438000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>-544000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>-17524000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>-321000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>-16762000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>-247000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>-14950000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>61000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>17080000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>12820000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>13380000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>11371000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>-26228000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>37726000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>39281000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>11518000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>19828000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>21060000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>14275000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>26005000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>29188000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>20492000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>20368000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>2201000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>6705000</v>
+      </c>
+      <c r="C18">
         <v>4113000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>11250000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>-686322000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>-136019000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>-81555000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>-480273000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>-451929000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>33987000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>68665000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>1090965000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>43694000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>2223801000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>11989000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>2246900000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>22972000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>2053864000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>29237000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>1909412000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>56014000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>1597943000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>34422000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>1420386000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>24239000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>1042472000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>16639000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>17612000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>14907000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>-17458000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>72754000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>62547000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>1522434000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>24391000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>30662000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>28473000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>458186000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>59928000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>45795000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>48959000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>321582000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>166564000</v>
+      </c>
+      <c r="C19">
         <v>-180058000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>-145198000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>-11448000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>-4236000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>-63843000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>23477000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>-42138000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>66674000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>28459000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>11819000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>-70902000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>29810000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>-29325000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>4998000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>-5014000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>-4957000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>-5562000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>-36340000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>7177000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>2181000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>10685000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>11527000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>5455000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>-11316000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>-441000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>-2742000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>5334000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>-3343000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>-7741000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>6221000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>-11061000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>-4398000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>-3839000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>1250000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>301000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>-86000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>1559000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>-2590000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>-2336000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>-969732000</v>
+      </c>
+      <c r="C20">
         <v>295905000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-190092000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>-20610000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>-1497857000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>-251650000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>-631835000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>197583000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>-183410000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>1242234000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>2001859000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>134401000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>584065000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>-568484000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>1658108000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>-441944000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>733477000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>-835430000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>1314517000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>-223318000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>1076326000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>-172308000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>840953000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>-389752000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>498418000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>-421767000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>-214319000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>-204086000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>-306107000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>-178435000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>-160905000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>1341169000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>-69609000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>-31027000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>56794000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>552485000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>165909000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>68378000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>-47373000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>127760000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2684,11 +2849,11 @@
         <v>0</v>
       </c>
       <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
         <v>6055111000</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
       <c r="F21">
         <v>0</v>
       </c>
@@ -2696,11 +2861,11 @@
         <v>0</v>
       </c>
       <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>8238870000</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
       <c r="J21">
         <v>0</v>
       </c>
@@ -2708,11 +2873,11 @@
         <v>0</v>
       </c>
       <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
         <v>5043786000</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
       <c r="N21">
         <v>0</v>
       </c>
@@ -2720,11 +2885,11 @@
         <v>0</v>
       </c>
       <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>3812041000</v>
       </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
       <c r="R21">
         <v>0</v>
       </c>
@@ -2732,11 +2897,11 @@
         <v>0</v>
       </c>
       <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
         <v>2822795000</v>
       </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
       <c r="V21">
         <v>0</v>
       </c>
@@ -2744,11 +2909,11 @@
         <v>0</v>
       </c>
       <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
         <v>1467576000</v>
       </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
       <c r="Z21">
         <v>0</v>
       </c>
@@ -2756,11 +2921,11 @@
         <v>0</v>
       </c>
       <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
         <v>1809330000</v>
       </c>
-      <c r="AC21">
-        <v>0</v>
-      </c>
       <c r="AD21">
         <v>0</v>
       </c>
@@ -2768,11 +2933,11 @@
         <v>0</v>
       </c>
       <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
         <v>1113608000</v>
       </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
       <c r="AH21">
         <v>0</v>
       </c>
@@ -2780,11 +2945,11 @@
         <v>0</v>
       </c>
       <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
         <v>604965000</v>
       </c>
-      <c r="AK21">
-        <v>0</v>
-      </c>
       <c r="AL21">
         <v>0</v>
       </c>
@@ -2792,256 +2957,265 @@
         <v>0</v>
       </c>
       <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
         <v>290291000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>-969732000</v>
+      </c>
+      <c r="C22">
         <v>295905000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>-190092000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>6034501000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>-1497857000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>-251650000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>-631835000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>8436453000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>-183410000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>1242234000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>2001859000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>5178187000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>584065000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>-568484000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>1658108000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>3370097000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>733477000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>-835430000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>1314517000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>2599477000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>1076326000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>-172308000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>840953000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>1077824000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>498418000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>-421767000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>-214319000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>1605244000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>-306107000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>-178435000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>-160905000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>2454777000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>-69609000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>-31027000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>56794000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>1157450000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>165909000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>68378000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>-47373000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>418051000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>153789000</v>
+      </c>
+      <c r="C23">
         <v>152062000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>150392000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>119209000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>99329000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>95078000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>101583000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>107230000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>107594000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>106357000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>104210000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>97019000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>100066000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>100262000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>103848000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>101200000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>88714000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>82316000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>81232000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>68395000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>48530000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>44763000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>44028000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>44888000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>43646000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>43495000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>44112000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>42422000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>35860000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>32834000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>28590000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>27441000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>30251000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>29878000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>29285000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>25825000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>18922000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>18477000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>17955000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>17746000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3160,557 +3334,575 @@
       <c r="AN24">
         <v>0</v>
       </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
-        <v>0.0985</v>
+        <v>0.06569999999999999</v>
       </c>
       <c r="C25">
-        <v>0.1427</v>
+        <v>0.0774</v>
       </c>
       <c r="D25">
-        <v>0.0679</v>
+        <v>0.1125</v>
       </c>
       <c r="E25">
-        <v>0.0453</v>
+        <v>0.0533</v>
       </c>
       <c r="F25">
-        <v>0.0388</v>
+        <v>0.0363</v>
       </c>
       <c r="G25">
+        <v>0.0306</v>
+      </c>
+      <c r="H25">
         <v>0.0347</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>0.0321</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>0.0351</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>0.0357</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>0.0442</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>0.0589</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>0.0701</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>0.0682</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>0.0463</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>0.0434</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>0.0563</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>0.0317</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>0.0256</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>0.0324</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>0.0423</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>0.0411</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>0.0414</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>0.0318</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>0.0298</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>0.0244</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>0.0137</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>0.0068</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>0.0012</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>-0.0048</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>-0.009900000000000001</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>-0.0221</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>-0.0352</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>-0.0282</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>-0.0308</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>-0.0365</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>-0.0327</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>-0.0347</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>-0.0444</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>-0.0319</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>-753943000</v>
+      </c>
+      <c r="C26">
         <v>249193000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>-278625000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>25288000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>-28696100</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>761967000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>-755188000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>-220060000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>-125086000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>345672000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>-210706000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>-41753000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>-236904000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>231180000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>4356000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>44411000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>1131000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>92561000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>-6252000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>206327000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>21250000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>92034000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>-135518000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>81211000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>17855000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>86182000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>54735000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>33608000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>-55342000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>91785000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>27204000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>109240000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>-27929000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>35932000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>49685000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>78975000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>30829000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>-8953000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>53922000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>25012000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27">
+        <v>-911276000</v>
       </c>
       <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
         <v>247479000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>17487000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>3074000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>105884000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>68466000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>24935000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>36251000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>-9170000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>8568000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>-367000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>-7105000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>-11854000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>15810000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>10768000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>85592000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>100840000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>13959000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>-106661000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>-149975000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>6705000</v>
+      </c>
+      <c r="C28">
         <v>4113000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>711250000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>-686322000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>88149000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>-81555000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>19727000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>-451929000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>33987000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>68665000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>89060000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>43694000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>15633000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>11989000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>21896000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>22972000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>11450000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>29781000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>26936000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>56335000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>14705000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>34669000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>14826000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>24178000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>25392000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>3819000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>4232000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>3536000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>8171000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>35089000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>23804000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>10916000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>3750000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>9877000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>14469000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>32448000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>31004000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>25561000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>28846000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>39146000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>6705000</v>
+      </c>
+      <c r="C29">
         <v>4113000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>711250000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>-686322000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>88149000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>-81555000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>19727000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>-451929000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>33987000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>68665000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>89060000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>43694000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>15633000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>11989000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>21896000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>22972000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>11450000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>29781000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>26936000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>56335000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>14705000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>34669000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>14826000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>24178000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>25392000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>3819000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>4232000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>3536000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>8171000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>35089000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>23804000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>10916000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>3750000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>9877000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>14469000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>32448000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>31004000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>25561000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>28846000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>39146000</v>
       </c>
     </row>
